--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/136.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/136.xlsx
@@ -479,13 +479,13 @@
         <v>-5.133164841604865</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.104321217603468</v>
+        <v>-6.263463280128417</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.707544269180818</v>
+        <v>-3.664257002381153</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.899747785954364</v>
+        <v>-9.548978563839468</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.24510089503811</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.796976154480511</v>
+        <v>-6.965402441045731</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.743175351226894</v>
+        <v>-3.722387294028772</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.804593045303598</v>
+        <v>-9.439836374542457</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.299357163972989</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.239998400732875</v>
+        <v>-7.370877114560189</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.820255433490675</v>
+        <v>-3.789899589854</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.352154571825555</v>
+        <v>-8.970613940490296</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.240450827753236</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.791840161829033</v>
+        <v>-7.942377572268211</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.552196075984595</v>
+        <v>-3.507530109248461</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.971090709597603</v>
+        <v>-8.591359010803103</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.047222531731712</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.529737968252507</v>
+        <v>-8.662445170648045</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.531417796800207</v>
+        <v>-3.471063007028142</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.603486283274268</v>
+        <v>-8.244762646986901</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.694373927791855</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.231251785572399</v>
+        <v>-9.322734882066111</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.441909859080728</v>
+        <v>-3.359530093373211</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.13184867982985</v>
+        <v>-7.754688598647347</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.167030824803877</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.873936183262703</v>
+        <v>-9.971569650394995</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.321552288031016</v>
+        <v>-3.224681505969963</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.560093993764747</v>
+        <v>-7.163011209599566</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.464623087748326</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.52421320861733</v>
+        <v>-10.62338182390583</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.198486207177033</v>
+        <v>-3.104724833483338</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.03766449797995</v>
+        <v>-6.636039826435404</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.608251647294768</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.78418125975866</v>
+        <v>-10.8623320345263</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.020037456534637</v>
+        <v>-2.90897388753893</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.786115316663442</v>
+        <v>-6.33394809212873</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.637933505184241</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.53116772994773</v>
+        <v>-11.62175124917793</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.069489760993482</v>
+        <v>-2.95740438956259</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.168975979852768</v>
+        <v>-5.689596543096807</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.6092241570171995</v>
       </c>
       <c r="E12" t="n">
-        <v>-12.12695677377059</v>
+        <v>-12.20878408170214</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.70956596445807</v>
+        <v>-2.579024592104574</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.616444868788375</v>
+        <v>-5.135520505862469</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4207528899841506</v>
       </c>
       <c r="E13" t="n">
-        <v>-13.06043929990499</v>
+        <v>-13.15885500813599</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.511419405148875</v>
+        <v>-2.345217616708101</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.861753323777049</v>
+        <v>-4.390171852973817</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.398964044663008</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.53594899678801</v>
+        <v>-13.62941214106282</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.386378165520658</v>
+        <v>-2.239673736465141</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.356249569765511</v>
+        <v>-3.888080625755386</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>2.285084267547805</v>
       </c>
       <c r="E15" t="n">
-        <v>-14.36787218327599</v>
+        <v>-14.45274045347876</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.191414349681823</v>
+        <v>-2.059088489821904</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.661458136887627</v>
+        <v>-3.183819186576288</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>3.05322338514646</v>
       </c>
       <c r="E16" t="n">
-        <v>-15.02676363873011</v>
+        <v>-15.15188799147507</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.847907838205512</v>
+        <v>-1.696974418210114</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.458310123553578</v>
+        <v>-2.990957643690227</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3.687145399711904</v>
       </c>
       <c r="E17" t="n">
-        <v>-16.04161879515745</v>
+        <v>-16.13798112050435</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.467733775227339</v>
+        <v>-1.323850303134032</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.085000226216553</v>
+        <v>-2.628359560398613</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>4.179401414058074</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.74600734851509</v>
+        <v>-16.8078483963747</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.287916102662207</v>
+        <v>-1.157941855105273</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.903442067206799</v>
+        <v>-2.431200580476534</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>4.526669289720449</v>
       </c>
       <c r="E19" t="n">
-        <v>-17.56105368329848</v>
+        <v>-17.61235403235302</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7976171600067747</v>
+        <v>-0.6830628401080906</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.534771837386477</v>
+        <v>-2.019463089165558</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>4.732430962137766</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.35247144789408</v>
+        <v>-18.44960623632594</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5036754001472473</v>
+        <v>-0.4011235921068393</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.696421960434153</v>
+        <v>-2.157909985622855</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>4.806855085650006</v>
       </c>
       <c r="E21" t="n">
-        <v>-18.7369233918808</v>
+        <v>-18.77848972826331</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.09799049933751179</v>
+        <v>-0.004312238760554475</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.923164320907934</v>
+        <v>-2.325876705542585</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>4.768002306334406</v>
       </c>
       <c r="E22" t="n">
-        <v>-19.30247881723865</v>
+        <v>-19.32565270978783</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3636295290365976</v>
+        <v>0.4551908496401808</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.986296066580407</v>
+        <v>-2.360373537995537</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>4.638546924160554</v>
       </c>
       <c r="E23" t="n">
-        <v>-19.77173058533202</v>
+        <v>-19.81102353352141</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5183861524019234</v>
+        <v>0.5716421042032279</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.963562184649252</v>
+        <v>-2.316817375818192</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>4.445723291794264</v>
       </c>
       <c r="E24" t="n">
-        <v>-20.00242815236113</v>
+        <v>-20.0516555625041</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5877171587816442</v>
+        <v>0.613594672128225</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.444034223502186</v>
+        <v>-2.772067028244711</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>4.216178744942108</v>
       </c>
       <c r="E25" t="n">
-        <v>-20.5683355862134</v>
+        <v>-20.61431669579674</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8602890696258865</v>
+        <v>0.8584508030439264</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.718913745587612</v>
+        <v>-3.000799214513327</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.972455800196304</v>
       </c>
       <c r="E26" t="n">
-        <v>-20.55173251889336</v>
+        <v>-20.57859761162706</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8951427995801231</v>
+        <v>0.8906938033312305</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.097454880272235</v>
+        <v>-3.304294093790806</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.734775725833568</v>
       </c>
       <c r="E27" t="n">
-        <v>-20.78960714800311</v>
+        <v>-20.81575355672737</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7903127143397328</v>
+        <v>0.7646503172952962</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.413059829559063</v>
+        <v>-3.607397852518932</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.510998600120367</v>
       </c>
       <c r="E28" t="n">
-        <v>-20.9240792818776</v>
+        <v>-20.96937593049957</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8484185609530169</v>
+        <v>0.8344213342930394</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.769292425909954</v>
+        <v>-3.956683170111937</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.303305948067512</v>
       </c>
       <c r="E29" t="n">
-        <v>-20.78211718948299</v>
+        <v>-20.81581711381664</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6848177241654421</v>
+        <v>0.6385530521838259</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.035000171113047</v>
+        <v>-4.193594664868901</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.104441899604611</v>
       </c>
       <c r="E30" t="n">
-        <v>-20.43856667694488</v>
+        <v>-20.48391710464238</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7116877059060066</v>
+        <v>0.6663763902634389</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.605170818953269</v>
+        <v>-4.714225006126674</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.901503177946417</v>
       </c>
       <c r="E31" t="n">
-        <v>-20.36916722446902</v>
+        <v>-20.40664146210392</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6911538770649638</v>
+        <v>0.6329502503143414</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.730588512110239</v>
+        <v>-4.823782761007371</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.684692993951169</v>
       </c>
       <c r="E32" t="n">
-        <v>-20.22211078691909</v>
+        <v>-20.23813695142884</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4658537736169223</v>
+        <v>0.4092781861529825</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.167807507211576</v>
+        <v>-5.222021704358795</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.441846379127935</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.82434118822689</v>
+        <v>-19.84772530807134</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3462197755835135</v>
+        <v>0.2759549688922118</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.268662829869164</v>
+        <v>-5.335974676412849</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.166823750622195</v>
       </c>
       <c r="E34" t="n">
-        <v>-19.5035734476886</v>
+        <v>-19.52209789470734</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2740727012484496</v>
+        <v>0.1943525552765344</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.534615025415603</v>
+        <v>-5.564418411276317</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.856230636273162</v>
       </c>
       <c r="E35" t="n">
-        <v>-18.96645248626872</v>
+        <v>-19.00783304039029</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0927541035751749</v>
+        <v>0.04378581079615478</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.356953404878781</v>
+        <v>-5.383745162509475</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.50942073109125</v>
       </c>
       <c r="E36" t="n">
-        <v>-18.56061113723925</v>
+        <v>-18.56912778720141</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06456897898741022</v>
+        <v>0.02028924379376154</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.486067187227138</v>
+        <v>-5.506938357541998</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.132252275547168</v>
       </c>
       <c r="E37" t="n">
-        <v>-18.15896455610158</v>
+        <v>-18.18876794196229</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1285220778135247</v>
+        <v>0.1045659441656414</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.097836040932289</v>
+        <v>-5.133516013047034</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7324151674045807</v>
       </c>
       <c r="E38" t="n">
-        <v>-17.68180237489755</v>
+        <v>-17.70042949106049</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.06788888405791646</v>
+        <v>-0.06898402159610541</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.981599902671386</v>
+        <v>-5.039084845412572</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.321173950368364</v>
       </c>
       <c r="E39" t="n">
-        <v>-17.10049456941449</v>
+        <v>-17.08966053019741</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.09995099109114469</v>
+        <v>-0.1136988784009095</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.972110340342704</v>
+        <v>-5.016570968790428</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.08814163615968641</v>
       </c>
       <c r="E40" t="n">
-        <v>-16.65488603852953</v>
+        <v>-16.66352980267024</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1426955781285821</v>
+        <v>-0.1283610099947874</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.889305231037765</v>
+        <v>-4.986180902105685</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.481412727179325</v>
       </c>
       <c r="E41" t="n">
-        <v>-15.94560847830498</v>
+        <v>-15.97614032618886</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2996131425290843</v>
+        <v>-0.2658789951473711</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.015607834437646</v>
+        <v>-5.126969632852235</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.8453565048253263</v>
       </c>
       <c r="E42" t="n">
-        <v>-15.31657907679397</v>
+        <v>-15.350044328798</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.3933060701266423</v>
+        <v>-0.3427195160746734</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.065998828214939</v>
+        <v>-5.241499507716584</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.170165155240139</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.83716306342429</v>
+        <v>-14.87992231748233</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.5012504527412575</v>
+        <v>-0.4553866793227284</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.71052402792842</v>
+        <v>-4.923503834071836</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.450339178377926</v>
       </c>
       <c r="E44" t="n">
-        <v>-14.24595501903573</v>
+        <v>-14.27624241657627</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5425087816911527</v>
+        <v>-0.4893750550615211</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.862200576967589</v>
+        <v>-5.07056027162177</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.685000329817435</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.71408973999779</v>
+        <v>-13.73792853748086</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.6758857780274594</v>
+        <v>-0.6205764433420506</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.96278211524063</v>
+        <v>-5.1853443748432</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.876857147481423</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.79008699817833</v>
+        <v>-12.83511964042948</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.8434515993841023</v>
+        <v>-0.789266736278084</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.974285948398481</v>
+        <v>-5.272011799573001</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.032938372231091</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.44891254297754</v>
+        <v>-12.50256939334193</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.9520804429600855</v>
+        <v>-0.8768239602576637</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.18844889420369</v>
+        <v>-5.499081723506865</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.160356419201664</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.69217250408897</v>
+        <v>-11.7603497048481</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.081306672466382</v>
+        <v>-1.017392685695202</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.24030170103419</v>
+        <v>-5.598577902255451</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.267058387512416</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.27111656568966</v>
+        <v>-11.32170800874849</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.17921392398322</v>
+        <v>-1.10707662766189</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.188952461910983</v>
+        <v>-5.532742535785575</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.36031071127264</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.70747274201677</v>
+        <v>-10.76193138950733</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.423586043219097</v>
+        <v>-1.348569121853154</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.438370036233516</v>
+        <v>-5.79160078236812</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.443233311678006</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.27602277501839</v>
+        <v>-10.32302568703691</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.386864712641699</v>
+        <v>-1.318936851232783</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.624577640773706</v>
+        <v>-5.986838382591502</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.519709342913573</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.711528264150655</v>
+        <v>-9.731050068570246</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.501042579011631</v>
+        <v>-1.428000816419921</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.653012104711682</v>
+        <v>-6.023677049333706</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.588649281591459</v>
       </c>
       <c r="E53" t="n">
-        <v>-9.185779132703223</v>
+        <v>-9.215347846234325</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.442848730274742</v>
+        <v>-1.351042959327813</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.798112939514851</v>
+        <v>-6.176101616423513</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.649376739967162</v>
       </c>
       <c r="E54" t="n">
-        <v>-8.613207982491346</v>
+        <v>-8.610743923030419</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.533745145944425</v>
+        <v>-1.433667175378676</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.728019248063892</v>
+        <v>-6.097809060456737</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.703138863274389</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.914065333501907</v>
+        <v>-7.944880743784072</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.707485782973981</v>
+        <v>-1.616731148503439</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.903793711950085</v>
+        <v>-6.257899590313867</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.747370484036646</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.550469892809442</v>
+        <v>-7.565356918719198</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.784384971983686</v>
+        <v>-1.675717016352768</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.892607664238583</v>
+        <v>-6.230966051484033</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.783772067660301</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.275350809387538</v>
+        <v>-7.332821085108122</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.706639984786005</v>
+        <v>-1.617513389602145</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.762085847912555</v>
+        <v>-6.08992798138727</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.810985486321266</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.688616206282208</v>
+        <v>-6.695749267301037</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.766652544077386</v>
+        <v>-1.693307663059928</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.995927046357097</v>
+        <v>-6.31353648845936</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.828829486244537</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.271481251390157</v>
+        <v>-6.30927327447141</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.908301740032513</v>
+        <v>-1.791107356425694</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.940559043589285</v>
+        <v>-6.2401622734007</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-2.838104332619289</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.155000662785909</v>
+        <v>-6.182447547336769</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.981861737352115</v>
+        <v>-1.878498354171799</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.789254059072001</v>
+        <v>-6.068215901891302</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.83452190313029</v>
       </c>
       <c r="E61" t="n">
-        <v>-5.997750645918456</v>
+        <v>-5.982252494150336</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.078224062699009</v>
+        <v>-1.998249688370014</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.769448692254129</v>
+        <v>-6.051534610461387</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.817589697083683</v>
       </c>
       <c r="E62" t="n">
-        <v>-5.761357385889385</v>
+        <v>-5.768964680574304</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.109660376853272</v>
+        <v>-2.028815759301966</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.912515700200661</v>
+        <v>-6.207987719209533</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.782897593350754</v>
       </c>
       <c r="E63" t="n">
-        <v>-5.432532562034419</v>
+        <v>-5.413328543061177</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.261869827640935</v>
+        <v>-2.195129994900679</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.714897153633092</v>
+        <v>-5.984692108576927</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.726680990769617</v>
       </c>
       <c r="E64" t="n">
-        <v>-5.298084873194258</v>
+        <v>-5.289035321483598</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.414328617778811</v>
+        <v>-2.330917271622375</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.528430431728956</v>
+        <v>-5.803955302720815</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.649109615544935</v>
       </c>
       <c r="E65" t="n">
-        <v>-5.111090138548495</v>
+        <v>-5.094702187530596</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.235904312170749</v>
+        <v>-2.140964687822128</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.601491750348133</v>
+        <v>-5.909068950359486</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.549088184246858</v>
       </c>
       <c r="E66" t="n">
-        <v>-5.146305655010884</v>
+        <v>-5.159403304407348</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.33804055462747</v>
+        <v>-2.251309572808398</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.627266594550508</v>
+        <v>-5.911063665161187</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.430956916039903</v>
       </c>
       <c r="E67" t="n">
-        <v>-4.930812899337873</v>
+        <v>-4.932132931191941</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.426042678231939</v>
+        <v>-2.312524827789041</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.54059428081384</v>
+        <v>-5.827549649860546</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.297481429642168</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.016683415948368</v>
+        <v>-5.005106247687513</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.471588666204118</v>
+        <v>-2.344582045815402</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.418598892463711</v>
+        <v>-5.715449611409054</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.151134496000986</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.150358641703556</v>
+        <v>-5.164962105215031</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.495823473243416</v>
+        <v>-2.396156179254488</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.211740122917673</v>
+        <v>-5.520549352659489</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.99474499793443</v>
       </c>
       <c r="E70" t="n">
-        <v>-4.94872622049825</v>
+        <v>-4.962982564522174</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.427964057930636</v>
+        <v>-2.292963911314514</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.211769456958875</v>
+        <v>-5.491489095842547</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.825770182570088</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.456014462016212</v>
+        <v>-5.495243853116337</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.526756219690387</v>
+        <v>-2.394968150585827</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.053541638718039</v>
+        <v>-5.342965956232537</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.64118423038868</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.502024905640749</v>
+        <v>-5.517229716996853</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.480975559388595</v>
+        <v>-2.340685507342471</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.778329664165663</v>
+        <v>-5.020667956544903</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.435854489957239</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.747501940428548</v>
+        <v>-5.780932969384512</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.610275123997895</v>
+        <v>-2.496947944822806</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.781888861164777</v>
+        <v>-5.048769968015931</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.205265549575509</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.928717868957618</v>
+        <v>-5.965957434262909</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.488245512599697</v>
+        <v>-2.36626479127017</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.32319734790395</v>
+        <v>-4.588098406974003</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.9477005489179214</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.380677219762703</v>
+        <v>-6.407356530235457</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.678535437873761</v>
+        <v>-2.530134523435425</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.157567573266605</v>
+        <v>-4.425754044951224</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6634154166878831</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.572810300625593</v>
+        <v>-6.601190985488034</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.731830501730001</v>
+        <v>-2.581664655812709</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.754283174828525</v>
+        <v>-4.002537165516732</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.35629509873652</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.143367180008301</v>
+        <v>-7.152387397677759</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.731067816658762</v>
+        <v>-2.567755431276336</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.380792384237425</v>
+        <v>-3.579403399198977</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.03252953962793539</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.830737100462208</v>
+        <v>-7.857939534669724</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.80512649267879</v>
+        <v>-2.626971082448409</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.078641981848347</v>
+        <v>-3.26289398364177</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.2993793826965813</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.523352925284316</v>
+        <v>-8.5276552513272</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.784020650034318</v>
+        <v>-2.598277501146486</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.662572830453284</v>
+        <v>-2.828344386289769</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.6301094071415877</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.116037449746681</v>
+        <v>-9.119308195340647</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.864972825736696</v>
+        <v>-2.683683562104623</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.292323451414948</v>
+        <v>-2.433669528944326</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.949552595352287</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.821022461942082</v>
+        <v>-9.807831921415145</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.826682123955018</v>
+        <v>-2.647583135399323</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.947091120514616</v>
+        <v>-2.098889894725458</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.250826422255051</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.71326132614719</v>
+        <v>-10.69347551535679</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.963525426159968</v>
+        <v>-2.777479158846386</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.868387887971019</v>
+        <v>-2.004536951200866</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.530740378184876</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.65133462972963</v>
+        <v>-11.6467438522816</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.955018554211535</v>
+        <v>-2.746336185104138</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.581471630979248</v>
+        <v>-1.70609241601691</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.789181230056748</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.66508975961191</v>
+        <v>-12.62196871904573</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.026427388509695</v>
+        <v>-2.844561222067326</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.288840124960054</v>
+        <v>-1.383520631944729</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>2.032829956798834</v>
       </c>
       <c r="E85" t="n">
-        <v>-14.01607391615339</v>
+        <v>-13.95046833300626</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.977996886486036</v>
+        <v>-2.784333546473801</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.184689611674165</v>
+        <v>-1.282279077744654</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>2.268551036723973</v>
       </c>
       <c r="E86" t="n">
-        <v>-15.20982761185488</v>
+        <v>-15.13131993958596</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.93304735735162</v>
+        <v>-2.769925643237003</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.230836947490975</v>
+        <v>-1.350387832407646</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>2.505368861010064</v>
       </c>
       <c r="E87" t="n">
-        <v>-16.65351222759993</v>
+        <v>-16.5873004076013</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.85618728039685</v>
+        <v>-2.685678276906324</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.03172236482213</v>
+        <v>-1.110846051956281</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.749448511925416</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.04309020434883</v>
+        <v>-17.97786596373732</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.876085538345194</v>
+        <v>-2.720683566073435</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.339069781510738</v>
+        <v>-1.414604937604574</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>3.000869070575613</v>
       </c>
       <c r="E89" t="n">
-        <v>-19.54190326152521</v>
+        <v>-19.46690589618673</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.864894601626825</v>
+        <v>-2.71972532072752</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.152940401080419</v>
+        <v>-1.18661588037973</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>3.259446301852863</v>
       </c>
       <c r="E90" t="n">
-        <v>-21.32712900798607</v>
+        <v>-21.25231742490854</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.630965401058679</v>
+        <v>-2.491643372372204</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.362732574746607</v>
+        <v>-1.402729539924838</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>3.515913260959105</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.89352769609069</v>
+        <v>-22.81109415130763</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.613873433051944</v>
+        <v>-2.495921253380754</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.522735102480132</v>
+        <v>-1.575800383013627</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>3.759116698485743</v>
       </c>
       <c r="E92" t="n">
-        <v>-24.76501019070453</v>
+        <v>-24.67610848983654</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.446522727997445</v>
+        <v>-2.331489285425804</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.815723506000611</v>
+        <v>-1.871120842809624</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>3.974580261405039</v>
       </c>
       <c r="E93" t="n">
-        <v>-26.62370548785795</v>
+        <v>-26.49785756209669</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.366753691956861</v>
+        <v>-2.266098818580816</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.227641890565663</v>
+        <v>-2.266074373546481</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>4.142699995666685</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.64068727133461</v>
+        <v>-28.51727162648965</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.544258864273942</v>
+        <v>-2.447901427933915</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.418410938512685</v>
+        <v>-2.474497625289933</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>4.251335829797719</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.82120389000615</v>
+        <v>-30.66701683594082</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.482408038400601</v>
+        <v>-2.409928511598587</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.745881507465515</v>
+        <v>-2.793774218733813</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.277953969614768</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.94506425260044</v>
+        <v>-32.8046128633277</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.587815026451287</v>
+        <v>-2.524805505950487</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.05225112278074</v>
+        <v>-3.095196159099721</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>4.219907329684534</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.05189375977383</v>
+        <v>-34.93970816370216</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.714362080194514</v>
+        <v>-2.653229938330609</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.369640559573992</v>
+        <v>-3.401991118012368</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>4.052456105422807</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.14632963453959</v>
+        <v>-37.01032968601919</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.845979034058731</v>
+        <v>-2.77794850350561</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.632810910213156</v>
+        <v>-3.674132796252321</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>3.794794549012655</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.5323923244134</v>
+        <v>-39.42886271499961</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.840532680408988</v>
+        <v>-2.821548666744757</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.899100447233413</v>
+        <v>-3.956697837132538</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>3.407616838033125</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.72749529507237</v>
+        <v>-41.60551457374284</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.929312156105297</v>
+        <v>-2.952393157524002</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.353768307842769</v>
+        <v>-4.444742947622323</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>2.960091360888041</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.74832228244987</v>
+        <v>-43.61380370301013</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.978045776554705</v>
+        <v>-3.024378894632458</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.687927038189539</v>
+        <v>-4.802525359150025</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.344688612791903</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.19834051565322</v>
+        <v>-46.0384406570639</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.194012765893806</v>
+        <v>-3.269919486509527</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.866463790955539</v>
+        <v>-4.983208385930601</v>
       </c>
     </row>
   </sheetData>
